--- a/Last_Experiment_Post_Experiment_Questionnaire.xlsx
+++ b/Last_Experiment_Post_Experiment_Questionnaire.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conso\OneDrive\Documents\GitHub\robot-barriers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BFE6A6-2DF3-4941-9950-3658C63CB311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
   <si>
     <t>Timestamp</t>
   </si>
@@ -326,14 +335,6 @@
     <t>p04121200</t>
   </si>
   <si>
-    <t>No. The Wizard Easy Programming tool saving feature was not working. The solution made by the participant was lost.</t>
-  </si>
-  <si>
-    <t>The desktop application was not working properly the first time the participant tried to use it. The proctor had to restart the website, losing the hours the participant took to complete the experiment. However, the proctor manually annotated the hours on his phone. The participant took 1 hour and 20 minutes to work on the experiment. No interactions were lost in the process, as this was the first time the participant was using the desktop application. 
-At the time of saving the participant's program solution, the saving feature of the Wizard Easy Program tool was not working properly too. The proctor had to restart the FlexPendant to make the Wizard Easy Programming tool work again, losing the participant's solution from the memory of the computer.
-However, the proctor observed the solution of the participant, and noticed that the participant did not complete the task. About five blocks or placed on the Wizard Easy Programming tool. The participant's solution should be considered incomplete.</t>
-  </si>
-  <si>
     <t>The materials do not provide the sufficient or required information, The information and resources are not concise and clear, The information and resources are not organized into logical and understandable components</t>
   </si>
   <si>
@@ -348,23 +349,28 @@
   </si>
   <si>
     <t>I found it very easy to get the movements down! The complicated part was figuring out the welcome message and movement question. The variables were also difficult to understand and I think providing more material on what they are for will help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The desktop application was not working properly the first time the participant tried to use it. The proctor had to restart the website, losing the hours the participant took to complete the experiment. However, the proctor manually annotated the hours on his phone. The participant took 1 hour and 20 minutes to work on the experiment. No interactions were lost in the process, as this was the first time the participant was using the desktop application. 
+At the time of saving the participant's program solution, the saving feature of the Wizard Easy Program tool was not working properly, maybe due to many errors in the participant's solution. The proctor had to restart the FlexPendant to make the Wizard Easy Programming tool work again. The participant had blocks that were not attached to the starting block of the tool, and these blocks were lost when we restarted the system. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -375,7 +381,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -385,42 +391,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -610,26 +618,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="32" width="18.88"/>
+    <col min="1" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="79.44140625" customWidth="1"/>
+    <col min="6" max="32" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,715 +718,715 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>45392.457167430555</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="R2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>45392.5118530787</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>45392.646322256944</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>45392.71231827546</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>45392.712318275459</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="4" t="s">
+      <c r="S5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="4" t="s">
+      <c r="V5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>45393.51467798611</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="4" t="s">
+      <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>45393.603960092594</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="4" t="s">
+      <c r="U7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>45393.653702118056</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" s="4" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>45393.71873298611</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>45393.718732986112</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="Q9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="Z9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>45394.4518971412</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>45394.451897141204</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="X10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="Z10" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>45394.51732225694</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>45394.517322256943</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="Y11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="4" t="s">
+      <c r="Z11" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>